--- a/final_data_pipeline/output/325193longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/325193longform_elec_options_nowhp.xlsx
@@ -1159,7 +1159,7 @@
         <v>198</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J4">
         <v>8000</v>
@@ -1174,10 +1174,10 @@
         <v>2258215.741464195</v>
       </c>
       <c r="N4">
-        <v>1.667307692307692</v>
+        <v>1.816489556614144</v>
       </c>
       <c r="O4">
-        <v>1.799766355140187</v>
+        <v>1.977334632662277</v>
       </c>
       <c r="P4">
         <v>282.2769676830244</v>
@@ -1212,7 +1212,7 @@
         <v>198</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="J5">
         <v>8000</v>
@@ -1227,10 +1227,10 @@
         <v>1385403.985728944</v>
       </c>
       <c r="N5">
-        <v>1.667307692307692</v>
+        <v>1.834960588773244</v>
       </c>
       <c r="O5">
-        <v>1.799766355140187</v>
+        <v>1.999528914098928</v>
       </c>
       <c r="P5">
         <v>173.175498216118</v>
@@ -1318,7 +1318,7 @@
         <v>198</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J7">
         <v>8000</v>
@@ -1333,10 +1333,10 @@
         <v>1893952.12230182</v>
       </c>
       <c r="N7">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="O7">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="P7">
         <v>236.7440152877275</v>
@@ -1371,7 +1371,7 @@
         <v>198</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J8">
         <v>8000</v>
@@ -1386,10 +1386,10 @@
         <v>4064316.900281468</v>
       </c>
       <c r="N8">
-        <v>1.667307692307692</v>
+        <v>1.710268888048116</v>
       </c>
       <c r="O8">
-        <v>1.799766355140187</v>
+        <v>1.850597034134623</v>
       </c>
       <c r="P8">
         <v>508.0396125351835</v>
@@ -1477,7 +1477,7 @@
         <v>198</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J10">
         <v>8000</v>
@@ -1492,10 +1492,10 @@
         <v>2780632.783891404</v>
       </c>
       <c r="N10">
-        <v>1.667307692307692</v>
+        <v>1.741255230125523</v>
       </c>
       <c r="O10">
-        <v>1.799766355140187</v>
+        <v>1.887411944869831</v>
       </c>
       <c r="P10">
         <v>347.5790979864255</v>
@@ -1583,7 +1583,7 @@
         <v>198</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J12">
         <v>8000</v>
@@ -1598,10 +1598,10 @@
         <v>1107215.802854492</v>
       </c>
       <c r="N12">
-        <v>1.667307692307692</v>
+        <v>1.741255230125523</v>
       </c>
       <c r="O12">
-        <v>1.799766355140187</v>
+        <v>1.887411944869831</v>
       </c>
       <c r="P12">
         <v>138.4019753568115</v>
@@ -1742,7 +1742,7 @@
         <v>198</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="J15">
         <v>8000</v>
@@ -1757,10 +1757,10 @@
         <v>1103773.922375246</v>
       </c>
       <c r="N15">
-        <v>1.667307692307692</v>
+        <v>1.539390618149934</v>
       </c>
       <c r="O15">
-        <v>1.799766355140187</v>
+        <v>1.649857210851975</v>
       </c>
       <c r="P15">
         <v>137.9717402969058</v>
@@ -1795,7 +1795,7 @@
         <v>198</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="J16">
         <v>8000</v>
@@ -1810,10 +1810,10 @@
         <v>1027975.411610765</v>
       </c>
       <c r="N16">
-        <v>1.667307692307692</v>
+        <v>1.878313199304596</v>
       </c>
       <c r="O16">
-        <v>1.799766355140187</v>
+        <v>2.051802890544073</v>
       </c>
       <c r="P16">
         <v>128.4969264513457</v>
@@ -1848,7 +1848,7 @@
         <v>199</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J17">
         <v>8000</v>
@@ -1892,7 +1892,7 @@
         <v>198</v>
       </c>
       <c r="I18">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J18">
         <v>8000</v>
@@ -1907,10 +1907,10 @@
         <v>2190178.576471585</v>
       </c>
       <c r="N18">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O18">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P18">
         <v>273.7723220589481</v>
@@ -1945,7 +1945,7 @@
         <v>198</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J19">
         <v>8000</v>
@@ -1960,10 +1960,10 @@
         <v>3041581.489047246</v>
       </c>
       <c r="N19">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O19">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P19">
         <v>380.1976861309057</v>
@@ -2210,7 +2210,7 @@
         <v>198</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J24">
         <v>8000</v>
@@ -2225,10 +2225,10 @@
         <v>1678287.501873749</v>
       </c>
       <c r="N24">
-        <v>1.667307692307692</v>
+        <v>1.718183925313875</v>
       </c>
       <c r="O24">
-        <v>1.799766355140187</v>
+        <v>1.859988703490151</v>
       </c>
       <c r="P24">
         <v>209.7859377342186</v>
@@ -2263,7 +2263,7 @@
         <v>198</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="J25">
         <v>8000</v>
@@ -2278,10 +2278,10 @@
         <v>820105.9974206667</v>
       </c>
       <c r="N25">
-        <v>1.667307692307692</v>
+        <v>1.706218364895326</v>
       </c>
       <c r="O25">
-        <v>1.799766355140187</v>
+        <v>1.845794074578076</v>
       </c>
       <c r="P25">
         <v>102.5132496775833</v>
@@ -2316,7 +2316,7 @@
         <v>198</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="J26">
         <v>8000</v>
@@ -2331,10 +2331,10 @@
         <v>1646468.666748252</v>
       </c>
       <c r="N26">
-        <v>1.667307692307692</v>
+        <v>1.539390618149934</v>
       </c>
       <c r="O26">
-        <v>1.799766355140187</v>
+        <v>1.649857210851975</v>
       </c>
       <c r="P26">
         <v>205.8085833435314</v>
@@ -2369,7 +2369,7 @@
         <v>198</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J27">
         <v>8000</v>
@@ -2384,10 +2384,10 @@
         <v>1312553.069312523</v>
       </c>
       <c r="N27">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O27">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P27">
         <v>164.0691336640654</v>
@@ -2528,7 +2528,7 @@
         <v>198</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J30">
         <v>8000</v>
@@ -2543,10 +2543,10 @@
         <v>595852.5374651274</v>
       </c>
       <c r="N30">
-        <v>1.667307692307692</v>
+        <v>1.741255230125523</v>
       </c>
       <c r="O30">
-        <v>1.799766355140187</v>
+        <v>1.887411944869831</v>
       </c>
       <c r="P30">
         <v>74.48156718314092</v>
@@ -2581,7 +2581,7 @@
         <v>198</v>
       </c>
       <c r="I31">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J31">
         <v>8000</v>
@@ -2596,10 +2596,10 @@
         <v>810142.6164230106</v>
       </c>
       <c r="N31">
-        <v>1.667307692307692</v>
+        <v>1.816489556614144</v>
       </c>
       <c r="O31">
-        <v>1.799766355140187</v>
+        <v>1.977334632662277</v>
       </c>
       <c r="P31">
         <v>101.2678270528763</v>
@@ -2634,7 +2634,7 @@
         <v>198</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J32">
         <v>8000</v>
@@ -2649,10 +2649,10 @@
         <v>2777627.954701636</v>
       </c>
       <c r="N32">
-        <v>1.667307692307692</v>
+        <v>1.558003327787022</v>
       </c>
       <c r="O32">
-        <v>1.799766355140187</v>
+        <v>1.671537070524412</v>
       </c>
       <c r="P32">
         <v>347.2034943377045</v>
@@ -2687,7 +2687,7 @@
         <v>198</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J33">
         <v>8000</v>
@@ -2702,10 +2702,10 @@
         <v>2947409.087913847</v>
       </c>
       <c r="N33">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O33">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P33">
         <v>368.4261359892308</v>
@@ -2740,7 +2740,7 @@
         <v>198</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J34">
         <v>8000</v>
@@ -2755,10 +2755,10 @@
         <v>2483437.855952705</v>
       </c>
       <c r="N34">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O34">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P34">
         <v>310.4297319940882</v>
@@ -2793,7 +2793,7 @@
         <v>198</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J35">
         <v>8000</v>
@@ -2808,10 +2808,10 @@
         <v>2856512.628378315</v>
       </c>
       <c r="N35">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O35">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P35">
         <v>357.0640785472894</v>
@@ -2846,7 +2846,7 @@
         <v>198</v>
       </c>
       <c r="I36">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J36">
         <v>8000</v>
@@ -2861,10 +2861,10 @@
         <v>2556924.380348116</v>
       </c>
       <c r="N36">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O36">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P36">
         <v>319.6155475435145</v>
@@ -2952,7 +2952,7 @@
         <v>198</v>
       </c>
       <c r="I38">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J38">
         <v>8000</v>
@@ -2967,10 +2967,10 @@
         <v>2278261.491683062</v>
       </c>
       <c r="N38">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O38">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P38">
         <v>284.7826864603828</v>
@@ -3058,7 +3058,7 @@
         <v>198</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J40">
         <v>8000</v>
@@ -3073,10 +3073,10 @@
         <v>2903601.841305105</v>
       </c>
       <c r="N40">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O40">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P40">
         <v>362.9502301631381</v>
@@ -3164,7 +3164,7 @@
         <v>198</v>
       </c>
       <c r="I42">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J42">
         <v>8000</v>
@@ -3179,10 +3179,10 @@
         <v>1318086.774797843</v>
       </c>
       <c r="N42">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O42">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P42">
         <v>164.7608468497303</v>
@@ -3217,7 +3217,7 @@
         <v>198</v>
       </c>
       <c r="I43">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J43">
         <v>8000</v>
@@ -3232,10 +3232,10 @@
         <v>2510354.79953685</v>
       </c>
       <c r="N43">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="O43">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="P43">
         <v>313.7943499421062</v>
@@ -3270,7 +3270,7 @@
         <v>198</v>
       </c>
       <c r="I44">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="J44">
         <v>8000</v>
@@ -3285,10 +3285,10 @@
         <v>669486.4867409088</v>
       </c>
       <c r="N44">
-        <v>1.667307692307692</v>
+        <v>1.878313199304596</v>
       </c>
       <c r="O44">
-        <v>1.799766355140187</v>
+        <v>2.051802890544073</v>
       </c>
       <c r="P44">
         <v>83.68581084261359</v>
@@ -3482,7 +3482,7 @@
         <v>198</v>
       </c>
       <c r="I48">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J48">
         <v>8000</v>
@@ -3497,10 +3497,10 @@
         <v>2920541.848271188</v>
       </c>
       <c r="N48">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O48">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P48">
         <v>365.0677310338985</v>
@@ -3694,7 +3694,7 @@
         <v>198</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J52">
         <v>8000</v>
@@ -3709,10 +3709,10 @@
         <v>2012566.813205434</v>
       </c>
       <c r="N52">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="O52">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="P52">
         <v>251.5708516506792</v>
@@ -3747,7 +3747,7 @@
         <v>198</v>
       </c>
       <c r="I53">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J53">
         <v>8000</v>
@@ -3762,10 +3762,10 @@
         <v>1346880.418718053</v>
       </c>
       <c r="N53">
-        <v>1.667307692307692</v>
+        <v>1.710268888048116</v>
       </c>
       <c r="O53">
-        <v>1.799766355140187</v>
+        <v>1.850597034134623</v>
       </c>
       <c r="P53">
         <v>168.3600523397566</v>
@@ -3800,7 +3800,7 @@
         <v>198</v>
       </c>
       <c r="I54">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J54">
         <v>8000</v>
@@ -3815,10 +3815,10 @@
         <v>1684960.603978198</v>
       </c>
       <c r="N54">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O54">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P54">
         <v>210.6200754972747</v>
@@ -3853,7 +3853,7 @@
         <v>198</v>
       </c>
       <c r="I55">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J55">
         <v>8000</v>
@@ -3868,10 +3868,10 @@
         <v>2141860.320628078</v>
       </c>
       <c r="N55">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O55">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P55">
         <v>267.7325400785097</v>
@@ -4012,7 +4012,7 @@
         <v>198</v>
       </c>
       <c r="I58">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J58">
         <v>8000</v>
@@ -4027,10 +4027,10 @@
         <v>1524725.639891178</v>
       </c>
       <c r="N58">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O58">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P58">
         <v>190.5907049863973</v>
@@ -4118,7 +4118,7 @@
         <v>198</v>
       </c>
       <c r="I60">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J60">
         <v>8000</v>
@@ -4133,10 +4133,10 @@
         <v>2720552.768076514</v>
       </c>
       <c r="N60">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O60">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P60">
         <v>340.0690960095643</v>
@@ -4224,7 +4224,7 @@
         <v>198</v>
       </c>
       <c r="I62">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J62">
         <v>8000</v>
@@ -4239,10 +4239,10 @@
         <v>2466202.637697804</v>
       </c>
       <c r="N62">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O62">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P62">
         <v>308.2753297122255</v>
@@ -4277,7 +4277,7 @@
         <v>198</v>
       </c>
       <c r="I63">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J63">
         <v>8000</v>
@@ -4292,10 +4292,10 @@
         <v>3005809.712978566</v>
       </c>
       <c r="N63">
-        <v>1.667307692307692</v>
+        <v>1.741255230125523</v>
       </c>
       <c r="O63">
-        <v>1.799766355140187</v>
+        <v>1.887411944869831</v>
       </c>
       <c r="P63">
         <v>375.7262141223207</v>
@@ -4330,7 +4330,7 @@
         <v>198</v>
       </c>
       <c r="I64">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J64">
         <v>8000</v>
@@ -4345,10 +4345,10 @@
         <v>921084.8261774092</v>
       </c>
       <c r="N64">
-        <v>1.667307692307692</v>
+        <v>1.816489556614144</v>
       </c>
       <c r="O64">
-        <v>1.799766355140187</v>
+        <v>1.977334632662277</v>
       </c>
       <c r="P64">
         <v>115.1356032721762</v>
@@ -4383,7 +4383,7 @@
         <v>198</v>
       </c>
       <c r="I65">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J65">
         <v>8000</v>
@@ -4398,10 +4398,10 @@
         <v>2622274.520140451</v>
       </c>
       <c r="N65">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O65">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P65">
         <v>327.7843150175564</v>
@@ -4489,7 +4489,7 @@
         <v>198</v>
       </c>
       <c r="I67">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J67">
         <v>8000</v>
@@ -4504,10 +4504,10 @@
         <v>2954302.873979798</v>
       </c>
       <c r="N67">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O67">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P67">
         <v>369.2878592474747</v>
@@ -4701,7 +4701,7 @@
         <v>198</v>
       </c>
       <c r="I71">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J71">
         <v>8000</v>
@@ -4716,10 +4716,10 @@
         <v>2908499.61871628</v>
       </c>
       <c r="N71">
-        <v>1.667307692307692</v>
+        <v>1.710268888048116</v>
       </c>
       <c r="O71">
-        <v>1.799766355140187</v>
+        <v>1.850597034134623</v>
       </c>
       <c r="P71">
         <v>363.562452339535</v>
@@ -4754,7 +4754,7 @@
         <v>198</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J72">
         <v>8000</v>
@@ -4769,10 +4769,10 @@
         <v>1657274.098177803</v>
       </c>
       <c r="N72">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O72">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P72">
         <v>207.1592622722254</v>
@@ -4807,7 +4807,7 @@
         <v>198</v>
       </c>
       <c r="I73">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J73">
         <v>8000</v>
@@ -4822,10 +4822,10 @@
         <v>1142515.885492662</v>
       </c>
       <c r="N73">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O73">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P73">
         <v>142.8144856865828</v>
@@ -4860,7 +4860,7 @@
         <v>198</v>
       </c>
       <c r="I74">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J74">
         <v>8000</v>
@@ -4875,10 +4875,10 @@
         <v>1523808.376243776</v>
       </c>
       <c r="N74">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O74">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P74">
         <v>190.476047030472</v>
@@ -4913,7 +4913,7 @@
         <v>198</v>
       </c>
       <c r="I75">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J75">
         <v>8000</v>
@@ -4928,10 +4928,10 @@
         <v>1292443.014829065</v>
       </c>
       <c r="N75">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O75">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P75">
         <v>161.5553768536331</v>
@@ -4966,7 +4966,7 @@
         <v>199</v>
       </c>
       <c r="I76">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J76">
         <v>8000</v>
@@ -5013,7 +5013,7 @@
         <v>198</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="J77">
         <v>8000</v>
@@ -5028,10 +5028,10 @@
         <v>991721.7135719409</v>
       </c>
       <c r="N77">
-        <v>1.667307692307692</v>
+        <v>1.878313199304596</v>
       </c>
       <c r="O77">
-        <v>1.799766355140187</v>
+        <v>2.051802890544073</v>
       </c>
       <c r="P77">
         <v>123.9652141964926</v>
@@ -5066,7 +5066,7 @@
         <v>199</v>
       </c>
       <c r="I78">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="J78">
         <v>8000</v>
@@ -5113,7 +5113,7 @@
         <v>198</v>
       </c>
       <c r="I79">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J79">
         <v>8000</v>
@@ -5128,10 +5128,10 @@
         <v>1593598.734808762</v>
       </c>
       <c r="N79">
-        <v>1.667307692307692</v>
+        <v>1.753361536861086</v>
       </c>
       <c r="O79">
-        <v>1.799766355140187</v>
+        <v>1.901830374152252</v>
       </c>
       <c r="P79">
         <v>199.1998418510953</v>
@@ -5219,7 +5219,7 @@
         <v>198</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J81">
         <v>8000</v>
@@ -5234,10 +5234,10 @@
         <v>982276.4028655075</v>
       </c>
       <c r="N81">
-        <v>1.667307692307692</v>
+        <v>1.558003327787022</v>
       </c>
       <c r="O81">
-        <v>1.799766355140187</v>
+        <v>1.671537070524412</v>
       </c>
       <c r="P81">
         <v>122.7845503581885</v>
@@ -5378,7 +5378,7 @@
         <v>198</v>
       </c>
       <c r="I84">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J84">
         <v>8000</v>
@@ -5393,10 +5393,10 @@
         <v>1314318.31232526</v>
       </c>
       <c r="N84">
-        <v>1.667307692307692</v>
+        <v>1.741255230125523</v>
       </c>
       <c r="O84">
-        <v>1.799766355140187</v>
+        <v>1.887411944869831</v>
       </c>
       <c r="P84">
         <v>164.2897890406575</v>
@@ -5484,7 +5484,7 @@
         <v>198</v>
       </c>
       <c r="I86">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="J86">
         <v>8000</v>
@@ -5499,10 +5499,10 @@
         <v>3075146.711350008</v>
       </c>
       <c r="N86">
-        <v>1.667307692307692</v>
+        <v>1.878313199304596</v>
       </c>
       <c r="O86">
-        <v>1.799766355140187</v>
+        <v>2.051802890544073</v>
       </c>
       <c r="P86">
         <v>384.393338918751</v>
@@ -5590,7 +5590,7 @@
         <v>198</v>
       </c>
       <c r="I88">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="J88">
         <v>8000</v>
@@ -5605,10 +5605,10 @@
         <v>1585626.523830593</v>
       </c>
       <c r="N88">
-        <v>1.667307692307692</v>
+        <v>1.834960588773244</v>
       </c>
       <c r="O88">
-        <v>1.799766355140187</v>
+        <v>1.999528914098928</v>
       </c>
       <c r="P88">
         <v>198.2033154788241</v>
@@ -5643,7 +5643,7 @@
         <v>198</v>
       </c>
       <c r="I89">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J89">
         <v>8000</v>
@@ -5658,10 +5658,10 @@
         <v>3091809.581187812</v>
       </c>
       <c r="N89">
-        <v>1.667307692307692</v>
+        <v>1.845246332384497</v>
       </c>
       <c r="O89">
-        <v>1.799766355140187</v>
+        <v>2.011908101571946</v>
       </c>
       <c r="P89">
         <v>386.4761976484764</v>
@@ -5696,7 +5696,7 @@
         <v>198</v>
       </c>
       <c r="I90">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="J90">
         <v>8000</v>
@@ -5711,10 +5711,10 @@
         <v>1016254.318500598</v>
       </c>
       <c r="N90">
-        <v>1.667307692307692</v>
+        <v>1.539390618149934</v>
       </c>
       <c r="O90">
-        <v>1.799766355140187</v>
+        <v>1.649857210851975</v>
       </c>
       <c r="P90">
         <v>127.0317898125748</v>
@@ -5855,7 +5855,7 @@
         <v>198</v>
       </c>
       <c r="I93">
-        <v>10</v>
+        <v>3.38888888888889</v>
       </c>
       <c r="J93">
         <v>8000</v>
@@ -5870,10 +5870,10 @@
         <v>977647.9115872314</v>
       </c>
       <c r="N93">
-        <v>1.667307692307692</v>
+        <v>1.578134831460674</v>
       </c>
       <c r="O93">
-        <v>1.799766355140187</v>
+        <v>1.695036674816626</v>
       </c>
       <c r="P93">
         <v>122.2059889484039</v>
@@ -5961,7 +5961,7 @@
         <v>198</v>
       </c>
       <c r="I95">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J95">
         <v>8000</v>
@@ -5976,10 +5976,10 @@
         <v>2199769.930998127</v>
       </c>
       <c r="N95">
-        <v>1.667307692307692</v>
+        <v>1.710268888048116</v>
       </c>
       <c r="O95">
-        <v>1.799766355140187</v>
+        <v>1.850597034134623</v>
       </c>
       <c r="P95">
         <v>274.9712413747659</v>
@@ -6067,7 +6067,7 @@
         <v>198</v>
       </c>
       <c r="I97">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J97">
         <v>8000</v>
@@ -6082,10 +6082,10 @@
         <v>1684037.315610615</v>
       </c>
       <c r="N97">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O97">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P97">
         <v>210.5046644513268</v>
@@ -6120,7 +6120,7 @@
         <v>198</v>
       </c>
       <c r="I98">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J98">
         <v>8000</v>
@@ -6135,10 +6135,10 @@
         <v>1868357.604797184</v>
       </c>
       <c r="N98">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O98">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P98">
         <v>233.544700599648</v>
@@ -6226,7 +6226,7 @@
         <v>198</v>
       </c>
       <c r="I100">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J100">
         <v>8000</v>
@@ -6241,10 +6241,10 @@
         <v>1504624.161010647</v>
       </c>
       <c r="N100">
-        <v>1.667307692307692</v>
+        <v>1.816489556614144</v>
       </c>
       <c r="O100">
-        <v>1.799766355140187</v>
+        <v>1.977334632662277</v>
       </c>
       <c r="P100">
         <v>188.0780201263309</v>
@@ -6279,7 +6279,7 @@
         <v>198</v>
       </c>
       <c r="I101">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="J101">
         <v>8000</v>
@@ -6294,10 +6294,10 @@
         <v>7608072.371951163</v>
       </c>
       <c r="N101">
-        <v>1.667307692307692</v>
+        <v>1.710268888048116</v>
       </c>
       <c r="O101">
-        <v>1.799766355140187</v>
+        <v>1.850597034134623</v>
       </c>
       <c r="P101">
         <v>951.0090464938953</v>
@@ -6332,7 +6332,7 @@
         <v>198</v>
       </c>
       <c r="I102">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J102">
         <v>8000</v>
@@ -6347,10 +6347,10 @@
         <v>449359.7793446233</v>
       </c>
       <c r="N102">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="O102">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="P102">
         <v>56.16997241807792</v>
@@ -6438,7 +6438,7 @@
         <v>198</v>
       </c>
       <c r="I104">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J104">
         <v>8000</v>
@@ -6453,10 +6453,10 @@
         <v>728644.7203682611</v>
       </c>
       <c r="N104">
-        <v>1.667307692307692</v>
+        <v>1.816489556614144</v>
       </c>
       <c r="O104">
-        <v>1.799766355140187</v>
+        <v>1.977334632662277</v>
       </c>
       <c r="P104">
         <v>91.08059004603263</v>
@@ -6544,7 +6544,7 @@
         <v>198</v>
       </c>
       <c r="I106">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J106">
         <v>8000</v>
@@ -6559,10 +6559,10 @@
         <v>1229195.040902202</v>
       </c>
       <c r="N106">
-        <v>1.667307692307692</v>
+        <v>1.741255230125523</v>
       </c>
       <c r="O106">
-        <v>1.799766355140187</v>
+        <v>1.887411944869831</v>
       </c>
       <c r="P106">
         <v>153.6493801127752</v>
@@ -6597,7 +6597,7 @@
         <v>198</v>
       </c>
       <c r="I107">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J107">
         <v>8000</v>
@@ -6612,10 +6612,10 @@
         <v>2621522.936297998</v>
       </c>
       <c r="N107">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O107">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P107">
         <v>327.6903670372498</v>
@@ -6703,7 +6703,7 @@
         <v>198</v>
       </c>
       <c r="I109">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J109">
         <v>8000</v>
@@ -6718,10 +6718,10 @@
         <v>1624318.279603451</v>
       </c>
       <c r="N109">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O109">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P109">
         <v>203.0397849504314</v>
@@ -6756,7 +6756,7 @@
         <v>198</v>
       </c>
       <c r="I110">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J110">
         <v>8000</v>
@@ -6771,10 +6771,10 @@
         <v>2715847.461615943</v>
       </c>
       <c r="N110">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="O110">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="P110">
         <v>339.4809327019929</v>
@@ -6809,7 +6809,7 @@
         <v>198</v>
       </c>
       <c r="I111">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="J111">
         <v>8000</v>
@@ -6824,10 +6824,10 @@
         <v>1268845.230586751</v>
       </c>
       <c r="N111">
-        <v>1.667307692307692</v>
+        <v>1.816489556614144</v>
       </c>
       <c r="O111">
-        <v>1.799766355140187</v>
+        <v>1.977334632662277</v>
       </c>
       <c r="P111">
         <v>158.6056538233439</v>
@@ -6968,7 +6968,7 @@
         <v>198</v>
       </c>
       <c r="I114">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J114">
         <v>8000</v>
@@ -6983,10 +6983,10 @@
         <v>1066785.152830207</v>
       </c>
       <c r="N114">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O114">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P114">
         <v>133.3481441037758</v>
@@ -7074,7 +7074,7 @@
         <v>198</v>
       </c>
       <c r="I116">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J116">
         <v>8000</v>
@@ -7089,10 +7089,10 @@
         <v>1541402.500865458</v>
       </c>
       <c r="N116">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O116">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P116">
         <v>192.6753126081823</v>
@@ -7233,7 +7233,7 @@
         <v>198</v>
       </c>
       <c r="I119">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="J119">
         <v>8000</v>
@@ -7248,10 +7248,10 @@
         <v>821716.1038887687</v>
       </c>
       <c r="N119">
-        <v>1.667307692307692</v>
+        <v>1.526839873899337</v>
       </c>
       <c r="O119">
-        <v>1.799766355140187</v>
+        <v>1.635263592404765</v>
       </c>
       <c r="P119">
         <v>102.7145129860961</v>
@@ -7339,7 +7339,7 @@
         <v>198</v>
       </c>
       <c r="I121">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J121">
         <v>8000</v>
@@ -7354,10 +7354,10 @@
         <v>1198054.768471886</v>
       </c>
       <c r="N121">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O121">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P121">
         <v>149.7568460589858</v>
@@ -7445,7 +7445,7 @@
         <v>198</v>
       </c>
       <c r="I123">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J123">
         <v>8000</v>
@@ -7460,10 +7460,10 @@
         <v>1451154.769413249</v>
       </c>
       <c r="N123">
-        <v>1.667307692307692</v>
+        <v>1.843792937469916</v>
       </c>
       <c r="O123">
-        <v>1.799766355140187</v>
+        <v>2.010158024452713</v>
       </c>
       <c r="P123">
         <v>181.3943461766561</v>
@@ -7498,7 +7498,7 @@
         <v>198</v>
       </c>
       <c r="I124">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J124">
         <v>8000</v>
@@ -7513,10 +7513,10 @@
         <v>3459969.688126595</v>
       </c>
       <c r="N124">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O124">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P124">
         <v>432.4962110158243</v>
@@ -7551,7 +7551,7 @@
         <v>198</v>
       </c>
       <c r="I125">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J125">
         <v>8000</v>
@@ -7566,10 +7566,10 @@
         <v>1574500.371838199</v>
       </c>
       <c r="N125">
-        <v>1.667307692307692</v>
+        <v>1.718183925313875</v>
       </c>
       <c r="O125">
-        <v>1.799766355140187</v>
+        <v>1.859988703490151</v>
       </c>
       <c r="P125">
         <v>196.8125464797749</v>
@@ -7604,7 +7604,7 @@
         <v>198</v>
       </c>
       <c r="I126">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J126">
         <v>8000</v>
@@ -7619,10 +7619,10 @@
         <v>3181282.700580821</v>
       </c>
       <c r="N126">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="O126">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="P126">
         <v>397.6603375726027</v>
@@ -7657,7 +7657,7 @@
         <v>198</v>
       </c>
       <c r="I127">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J127">
         <v>8000</v>
@@ -7672,10 +7672,10 @@
         <v>2299444.407835902</v>
       </c>
       <c r="N127">
-        <v>1.667307692307692</v>
+        <v>1.819666609086197</v>
       </c>
       <c r="O127">
-        <v>1.799766355140187</v>
+        <v>1.981148790245761</v>
       </c>
       <c r="P127">
         <v>287.4305509794878</v>
@@ -7710,7 +7710,7 @@
         <v>198</v>
       </c>
       <c r="I128">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J128">
         <v>8000</v>
@@ -7725,10 +7725,10 @@
         <v>2725828.355184955</v>
       </c>
       <c r="N128">
-        <v>1.667307692307692</v>
+        <v>1.558003327787022</v>
       </c>
       <c r="O128">
-        <v>1.799766355140187</v>
+        <v>1.671537070524412</v>
       </c>
       <c r="P128">
         <v>340.7285443981193</v>
@@ -7763,7 +7763,7 @@
         <v>198</v>
       </c>
       <c r="I129">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J129">
         <v>8000</v>
@@ -7778,10 +7778,10 @@
         <v>2674909.487992921</v>
       </c>
       <c r="N129">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="O129">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="P129">
         <v>334.3636859991152</v>
@@ -7816,7 +7816,7 @@
         <v>198</v>
       </c>
       <c r="I130">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J130">
         <v>8000</v>
@@ -7831,10 +7831,10 @@
         <v>2403413.003981964</v>
       </c>
       <c r="N130">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O130">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P130">
         <v>300.4266254977455</v>
@@ -7869,7 +7869,7 @@
         <v>198</v>
       </c>
       <c r="I131">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J131">
         <v>8000</v>
@@ -7884,10 +7884,10 @@
         <v>809246.4392962373</v>
       </c>
       <c r="N131">
-        <v>1.667307692307692</v>
+        <v>1.718183925313875</v>
       </c>
       <c r="O131">
-        <v>1.799766355140187</v>
+        <v>1.859988703490151</v>
       </c>
       <c r="P131">
         <v>101.1558049120297</v>
@@ -8081,7 +8081,7 @@
         <v>198</v>
       </c>
       <c r="I135">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="J135">
         <v>8000</v>
@@ -8096,10 +8096,10 @@
         <v>2580155.701362152</v>
       </c>
       <c r="N135">
-        <v>1.667307692307692</v>
+        <v>1.558003327787022</v>
       </c>
       <c r="O135">
-        <v>1.799766355140187</v>
+        <v>1.671537070524412</v>
       </c>
       <c r="P135">
         <v>322.519462670269</v>
@@ -8134,7 +8134,7 @@
         <v>198</v>
       </c>
       <c r="I136">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="J136">
         <v>8000</v>
@@ -8149,10 +8149,10 @@
         <v>1033112.991744251</v>
       </c>
       <c r="N136">
-        <v>1.667307692307692</v>
+        <v>1.539390618149934</v>
       </c>
       <c r="O136">
-        <v>1.799766355140187</v>
+        <v>1.649857210851975</v>
       </c>
       <c r="P136">
         <v>129.1391239680313</v>
@@ -8187,7 +8187,7 @@
         <v>198</v>
       </c>
       <c r="I137">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J137">
         <v>8000</v>
@@ -8202,10 +8202,10 @@
         <v>1811631.851942502</v>
       </c>
       <c r="N137">
-        <v>1.667307692307692</v>
+        <v>1.845246332384497</v>
       </c>
       <c r="O137">
-        <v>1.799766355140187</v>
+        <v>2.011908101571946</v>
       </c>
       <c r="P137">
         <v>226.4539814928127</v>
@@ -8240,7 +8240,7 @@
         <v>198</v>
       </c>
       <c r="I138">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J138">
         <v>8000</v>
@@ -8255,10 +8255,10 @@
         <v>803034.9527906692</v>
       </c>
       <c r="N138">
-        <v>1.667307692307692</v>
+        <v>1.718183925313875</v>
       </c>
       <c r="O138">
-        <v>1.799766355140187</v>
+        <v>1.859988703490151</v>
       </c>
       <c r="P138">
         <v>100.3793690988336</v>
@@ -8293,7 +8293,7 @@
         <v>198</v>
       </c>
       <c r="I139">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="J139">
         <v>8000</v>
@@ -8308,10 +8308,10 @@
         <v>614140.3948074443</v>
       </c>
       <c r="N139">
-        <v>1.667307692307692</v>
+        <v>1.706218364895326</v>
       </c>
       <c r="O139">
-        <v>1.799766355140187</v>
+        <v>1.845794074578076</v>
       </c>
       <c r="P139">
         <v>76.76754935093054</v>
@@ -8452,7 +8452,7 @@
         <v>198</v>
       </c>
       <c r="I142">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J142">
         <v>8000</v>
@@ -8467,10 +8467,10 @@
         <v>837774.995528528</v>
       </c>
       <c r="N142">
-        <v>1.667307692307692</v>
+        <v>1.843792937469916</v>
       </c>
       <c r="O142">
-        <v>1.799766355140187</v>
+        <v>2.010158024452713</v>
       </c>
       <c r="P142">
         <v>104.721874441066</v>
@@ -8558,7 +8558,7 @@
         <v>198</v>
       </c>
       <c r="I144">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="J144">
         <v>8000</v>
@@ -8573,10 +8573,10 @@
         <v>669147.5962307844</v>
       </c>
       <c r="N144">
-        <v>1.667307692307692</v>
+        <v>1.559675747705064</v>
       </c>
       <c r="O144">
-        <v>1.799766355140187</v>
+        <v>1.673487286771806</v>
       </c>
       <c r="P144">
         <v>83.64344952884805</v>
@@ -8664,7 +8664,7 @@
         <v>198</v>
       </c>
       <c r="I146">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J146">
         <v>8000</v>
@@ -8679,10 +8679,10 @@
         <v>1852672.245808584</v>
       </c>
       <c r="N146">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="O146">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="P146">
         <v>231.584030726073</v>
@@ -8717,7 +8717,7 @@
         <v>198</v>
       </c>
       <c r="I147">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J147">
         <v>8000</v>
@@ -8732,10 +8732,10 @@
         <v>783078.0671944573</v>
       </c>
       <c r="N147">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O147">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P147">
         <v>97.88475839930716</v>
@@ -8770,7 +8770,7 @@
         <v>198</v>
       </c>
       <c r="I148">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J148">
         <v>8000</v>
@@ -8785,10 +8785,10 @@
         <v>1097407.299325043</v>
       </c>
       <c r="N148">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O148">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P148">
         <v>137.1759124156304</v>
@@ -8823,7 +8823,7 @@
         <v>198</v>
       </c>
       <c r="I149">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J149">
         <v>8000</v>
@@ -8838,10 +8838,10 @@
         <v>1927590.564201428</v>
       </c>
       <c r="N149">
-        <v>1.667307692307692</v>
+        <v>1.845246332384497</v>
       </c>
       <c r="O149">
-        <v>1.799766355140187</v>
+        <v>2.011908101571946</v>
       </c>
       <c r="P149">
         <v>240.9488205251785</v>
@@ -8876,7 +8876,7 @@
         <v>198</v>
       </c>
       <c r="I150">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="J150">
         <v>8000</v>
@@ -8891,10 +8891,10 @@
         <v>705794.4629056097</v>
       </c>
       <c r="N150">
-        <v>1.667307692307692</v>
+        <v>1.777573720698044</v>
       </c>
       <c r="O150">
-        <v>1.799766355140187</v>
+        <v>1.930725790230997</v>
       </c>
       <c r="P150">
         <v>88.2243078632012</v>
@@ -8929,7 +8929,7 @@
         <v>198</v>
       </c>
       <c r="I151">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="J151">
         <v>8000</v>
@@ -8944,10 +8944,10 @@
         <v>1725189.166800026</v>
       </c>
       <c r="N151">
-        <v>1.667307692307692</v>
+        <v>1.834960588773244</v>
       </c>
       <c r="O151">
-        <v>1.799766355140187</v>
+        <v>1.999528914098928</v>
       </c>
       <c r="P151">
         <v>215.6486458500033</v>
@@ -9035,7 +9035,7 @@
         <v>198</v>
       </c>
       <c r="I153">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="J153">
         <v>8000</v>
@@ -9050,10 +9050,10 @@
         <v>1228047.331707914</v>
       </c>
       <c r="N153">
-        <v>1.667307692307692</v>
+        <v>1.777573720698044</v>
       </c>
       <c r="O153">
-        <v>1.799766355140187</v>
+        <v>1.930725790230997</v>
       </c>
       <c r="P153">
         <v>153.5059164634893</v>
@@ -9194,7 +9194,7 @@
         <v>198</v>
       </c>
       <c r="I156">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J156">
         <v>8000</v>
@@ -9209,10 +9209,10 @@
         <v>1424340.246072165</v>
       </c>
       <c r="N156">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O156">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P156">
         <v>178.0425307590206</v>
@@ -9353,7 +9353,7 @@
         <v>198</v>
       </c>
       <c r="I159">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J159">
         <v>8000</v>
@@ -9368,10 +9368,10 @@
         <v>3522274.331867946</v>
       </c>
       <c r="N159">
-        <v>1.667307692307692</v>
+        <v>1.733649767723692</v>
       </c>
       <c r="O159">
-        <v>1.799766355140187</v>
+        <v>1.878363999113278</v>
       </c>
       <c r="P159">
         <v>440.2842914834933</v>
@@ -9459,7 +9459,7 @@
         <v>198</v>
       </c>
       <c r="I161">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J161">
         <v>8000</v>
@@ -9474,10 +9474,10 @@
         <v>984314.2644663887</v>
       </c>
       <c r="N161">
-        <v>1.667307692307692</v>
+        <v>1.718183925313875</v>
       </c>
       <c r="O161">
-        <v>1.799766355140187</v>
+        <v>1.859988703490151</v>
       </c>
       <c r="P161">
         <v>123.0392830582986</v>
@@ -9565,7 +9565,7 @@
         <v>198</v>
       </c>
       <c r="I163">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="J163">
         <v>8000</v>
@@ -9580,10 +9580,10 @@
         <v>2677171.770420507</v>
       </c>
       <c r="N163">
-        <v>1.667307692307692</v>
+        <v>1.60506628066433</v>
       </c>
       <c r="O163">
-        <v>1.799766355140187</v>
+        <v>1.726556533289058</v>
       </c>
       <c r="P163">
         <v>334.6464713025633</v>
@@ -9618,7 +9618,7 @@
         <v>198</v>
       </c>
       <c r="I164">
-        <v>10</v>
+        <v>23.1435185185185</v>
       </c>
       <c r="J164">
         <v>8000</v>
@@ -9633,10 +9633,10 @@
         <v>1530488.284743338</v>
       </c>
       <c r="N164">
-        <v>1.667307692307692</v>
+        <v>1.878313199304596</v>
       </c>
       <c r="O164">
-        <v>1.799766355140187</v>
+        <v>2.051802890544073</v>
       </c>
       <c r="P164">
         <v>191.3110355929172</v>
@@ -9671,7 +9671,7 @@
         <v>198</v>
       </c>
       <c r="I165">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J165">
         <v>8000</v>
@@ -9686,10 +9686,10 @@
         <v>287972.587523181</v>
       </c>
       <c r="N165">
-        <v>1.667307692307692</v>
+        <v>1.718183925313875</v>
       </c>
       <c r="O165">
-        <v>1.799766355140187</v>
+        <v>1.859988703490151</v>
       </c>
       <c r="P165">
         <v>35.99657344039763</v>
@@ -9724,7 +9724,7 @@
         <v>198</v>
       </c>
       <c r="I166">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J166">
         <v>8000</v>
@@ -9739,10 +9739,10 @@
         <v>1895005.380947487</v>
       </c>
       <c r="N166">
-        <v>1.667307692307692</v>
+        <v>1.722817230984068</v>
       </c>
       <c r="O166">
-        <v>1.799766355140187</v>
+        <v>1.865490279279885</v>
       </c>
       <c r="P166">
         <v>236.8756726184359</v>
@@ -9777,7 +9777,7 @@
         <v>198</v>
       </c>
       <c r="I167">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J167">
         <v>8000</v>
@@ -9792,10 +9792,10 @@
         <v>417788.7394214387</v>
       </c>
       <c r="N167">
-        <v>1.667307692307692</v>
+        <v>1.843792937469916</v>
       </c>
       <c r="O167">
-        <v>1.799766355140187</v>
+        <v>2.010158024452713</v>
       </c>
       <c r="P167">
         <v>52.22359242767983</v>
